--- a/data/userdata.xlsx
+++ b/data/userdata.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="11g" sheetId="3" r:id="rId2"/>
+    <sheet name="19c" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>password</t>
   </si>
@@ -72,6 +74,18 @@
   </si>
   <si>
     <t>HDBank OTP</t>
+  </si>
+  <si>
+    <t>datathanhvan</t>
+  </si>
+  <si>
+    <t>002704070001208 (CAO VAN THANH) - VND</t>
+  </si>
+  <si>
+    <t>autotestnhap</t>
+  </si>
+  <si>
+    <t>autotestduyet</t>
   </si>
 </sst>
 </file>
@@ -393,12 +407,12 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -435,16 +449,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -456,11 +470,145 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>